--- a/SuRGE_Sharepoint/data/gases/duplicated_exetainers.xlsx
+++ b/SuRGE_Sharepoint/data/gases/duplicated_exetainers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/gases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{A30B06AA-6950-4AA7-9490-62671BC8AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC560665-34DE-4F8B-A622-A4B78B732D05}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{A30B06AA-6950-4AA7-9490-62671BC8AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF314E57-0E43-4682-998F-BC7380588DB3}"/>
   <bookViews>
     <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="18576" xr2:uid="{91FDC64B-D969-433B-BA32-7CC731ACFE55}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="131">
   <si>
     <t>sample</t>
   </si>
@@ -438,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +470,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +514,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -521,6 +529,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -538,6 +547,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,7 +873,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,33 +932,33 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2">
-        <v>238</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44075</v>
+      </c>
+      <c r="G2" s="4">
+        <v>249</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -954,13 +967,13 @@
       <c r="L2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>118</v>
+      <c r="M2" s="8">
+        <v>2036974619</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>1</v>
@@ -977,16 +990,16 @@
       <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>238</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -996,12 +1009,12 @@
         <v>113</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="b">
         <v>1</v>
@@ -1018,16 +1031,16 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>238</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1037,38 +1050,38 @@
         <v>113</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D5" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44075</v>
-      </c>
-      <c r="G5" s="2">
-        <v>249</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4">
+        <v>238</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1077,8 +1090,8 @@
       <c r="L5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="8">
-        <v>2036974619</v>
+      <c r="M5" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1100,16 +1113,16 @@
       <c r="F6" s="5">
         <v>44076</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>265</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1139,16 +1152,16 @@
       <c r="F7" s="5">
         <v>44076</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>265</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1178,16 +1191,16 @@
       <c r="F8" s="5">
         <v>44076</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>265</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1217,16 +1230,16 @@
       <c r="F9" s="5">
         <v>44076</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>287</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>9</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5">
         <v>44024</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1256,16 +1269,16 @@
       <c r="F10" s="5">
         <v>44076</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>287</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1277,58 +1290,56 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
         <v>235</v>
       </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2">
-        <v>238</v>
-      </c>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44076</v>
+      </c>
+      <c r="G11" s="4">
+        <v>287</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>107</v>
@@ -1337,10 +1348,10 @@
         <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H12" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>107</v>
@@ -1360,16 +1371,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>107</v>
@@ -1378,10 +1389,10 @@
         <v>22</v>
       </c>
       <c r="G13" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H13" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>107</v>
@@ -1400,140 +1411,140 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>235</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4">
-        <v>238</v>
-      </c>
-      <c r="H14" s="4">
-        <v>8</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>234</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2">
+        <v>249</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>116</v>
+      <c r="L14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>235</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4">
-        <v>238</v>
-      </c>
-      <c r="H15" s="4">
-        <v>8</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>234</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44075</v>
+      </c>
+      <c r="G15" s="2">
+        <v>249</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>115</v>
+      <c r="L15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2472670682</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>235</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4">
-        <v>238</v>
-      </c>
-      <c r="H16" s="4">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>234</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44075</v>
+      </c>
+      <c r="G16" s="2">
+        <v>249</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>117</v>
+      <c r="L16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2503016005</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>107</v>
@@ -1542,10 +1553,10 @@
         <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H17" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>107</v>
@@ -1565,16 +1576,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>107</v>
@@ -1583,10 +1594,10 @@
         <v>22</v>
       </c>
       <c r="G18" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H18" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>107</v>
@@ -1606,16 +1617,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>107</v>
@@ -1624,10 +1635,10 @@
         <v>22</v>
       </c>
       <c r="G19" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H19" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>107</v>
@@ -1646,90 +1657,90 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>234</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G20" s="2">
-        <v>249</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>235</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="10">
+        <v>238</v>
+      </c>
+      <c r="H20" s="4">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="9">
-        <v>2472670682</v>
+      <c r="L20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>234</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G21" s="2">
-        <v>249</v>
-      </c>
-      <c r="H21" s="2">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>235</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="10">
+        <v>238</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="9">
-        <v>2503016005</v>
+      <c r="L21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="b">
         <v>1</v>
@@ -1738,22 +1749,22 @@
         <v>235</v>
       </c>
       <c r="D22" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5">
-        <v>44076</v>
-      </c>
-      <c r="G22" s="4">
-        <v>265</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="10">
+        <v>238</v>
       </c>
       <c r="H22" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>22</v>
@@ -1761,19 +1772,21 @@
       <c r="K22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="4"/>
+      <c r="L22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>235</v>
       </c>
       <c r="D23" s="4">
@@ -1807,16 +1820,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>235</v>
       </c>
       <c r="D24" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
@@ -1845,49 +1858,47 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
         <v>235</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>21</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5">
         <v>44076</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>265</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="I25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="L25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="b">
         <v>1</v>
@@ -1896,7 +1907,7 @@
         <v>235</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -1928,7 +1939,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>1</v>
@@ -1968,58 +1979,58 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>235</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44076</v>
+      </c>
+      <c r="G28" s="2">
+        <v>265</v>
+      </c>
+      <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44076</v>
-      </c>
-      <c r="G28" s="4">
-        <v>287</v>
-      </c>
-      <c r="H28" s="4">
-        <v>13</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>123</v>
+      <c r="L28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>235</v>
       </c>
       <c r="D29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -2046,21 +2057,21 @@
         <v>113</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>235</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>11</v>
@@ -2087,21 +2098,21 @@
         <v>113</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>235</v>
       </c>
       <c r="D31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>11</v>
@@ -2116,7 +2127,7 @@
         <v>13</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>22</v>
@@ -2128,21 +2139,21 @@
         <v>113</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>235</v>
       </c>
       <c r="D32" s="4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>11</v>
@@ -2174,16 +2185,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>235</v>
       </c>
       <c r="D33" s="4">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>11</v>
@@ -2210,78 +2221,80 @@
         <v>113</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C34" s="4">
-        <v>234</v>
+      <c r="C34" s="7">
+        <v>235</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44076</v>
       </c>
       <c r="G34" s="4">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="H34" s="4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="5">
-        <v>44041</v>
+        <v>114</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M34" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44069</v>
       </c>
       <c r="G35" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H35" s="4">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>103</v>
@@ -2293,34 +2306,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44069</v>
       </c>
       <c r="G36" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H36" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J36" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>103</v>
@@ -2331,113 +2344,113 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>234</v>
-      </c>
-      <c r="D37" s="2">
-        <v>24</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G37" s="2">
-        <v>249</v>
-      </c>
-      <c r="H37" s="2">
-        <v>12</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="3">
-        <v>44041</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>205</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5">
+        <v>44069</v>
+      </c>
+      <c r="G37" s="4">
+        <v>265</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="5">
+        <v>44024</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M37" s="2"/>
+      <c r="L37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>234</v>
-      </c>
-      <c r="D38" s="2">
-        <v>20</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G38" s="2">
-        <v>249</v>
-      </c>
-      <c r="H38" s="2">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="3">
-        <v>44041</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="A38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>205</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44069</v>
+      </c>
+      <c r="G38" s="4">
+        <v>265</v>
+      </c>
+      <c r="H38" s="4">
+        <v>9</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="5">
+        <v>44024</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M38" s="2"/>
+      <c r="L38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B39" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D39" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="5">
-        <v>44075</v>
+        <v>44069</v>
       </c>
       <c r="G39" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H39" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J39" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>103</v>
@@ -2445,40 +2458,38 @@
       <c r="L39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D40" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="5">
-        <v>44075</v>
+        <v>44069</v>
       </c>
       <c r="G40" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H40" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J40" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>103</v>
@@ -2486,40 +2497,38 @@
       <c r="L40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="4">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D41" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="5">
-        <v>44075</v>
+        <v>44069</v>
       </c>
       <c r="G41" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H41" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J41" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>103</v>
@@ -2527,40 +2536,38 @@
       <c r="L41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B42" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D42" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="5">
-        <v>44076</v>
+        <v>44069</v>
       </c>
       <c r="G42" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H42" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>103</v>
@@ -2568,40 +2575,38 @@
       <c r="L42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B43" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D43" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="5">
-        <v>44076</v>
+        <v>44069</v>
       </c>
       <c r="G43" s="4">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H43" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="5">
-        <v>44041</v>
+        <v>44024</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>103</v>
@@ -2609,40 +2614,38 @@
       <c r="L43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D44" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5">
-        <v>44069</v>
+        <v>29</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G44" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H44" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J44" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>103</v>
@@ -2654,34 +2657,34 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D45" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5">
-        <v>44069</v>
+        <v>29</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G45" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H45" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J45" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>103</v>
@@ -2693,34 +2696,34 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D46" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="5">
-        <v>44069</v>
+        <v>29</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G46" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H46" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J46" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>103</v>
@@ -2731,113 +2734,113 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <v>205</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="5">
-        <v>44069</v>
-      </c>
-      <c r="G47" s="4">
-        <v>265</v>
-      </c>
-      <c r="H47" s="4">
-        <v>9</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="5">
-        <v>44024</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>234</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44075</v>
+      </c>
+      <c r="G47" s="2">
+        <v>249</v>
+      </c>
+      <c r="H47" s="2">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44041</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M47" s="4"/>
+      <c r="L47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <v>205</v>
-      </c>
-      <c r="D48" s="4">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="5">
-        <v>44069</v>
-      </c>
-      <c r="G48" s="4">
-        <v>265</v>
-      </c>
-      <c r="H48" s="4">
-        <v>9</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="5">
-        <v>44024</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>234</v>
+      </c>
+      <c r="D48" s="2">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44075</v>
+      </c>
+      <c r="G48" s="2">
+        <v>249</v>
+      </c>
+      <c r="H48" s="2">
+        <v>12</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44041</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M48" s="4"/>
+      <c r="L48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D49" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="5">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G49" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H49" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J49" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>103</v>
@@ -2845,38 +2848,40 @@
       <c r="L49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="4"/>
+      <c r="M49" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D50" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="5">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G50" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H50" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J50" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>103</v>
@@ -2884,38 +2889,40 @@
       <c r="L50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D51" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="5">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G51" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H51" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>103</v>
@@ -2923,32 +2930,34 @@
       <c r="L51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M51" s="4"/>
+      <c r="M51" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="4">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D52" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="5">
-        <v>44069</v>
+        <v>21</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G52" s="4">
         <v>265</v>
       </c>
       <c r="H52" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>11</v>
@@ -2966,7 +2975,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4" t="b">
         <v>1</v>
@@ -2987,7 +2996,7 @@
         <v>265</v>
       </c>
       <c r="H53" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>11</v>
@@ -3005,7 +3014,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" s="4" t="b">
         <v>1</v>
@@ -3044,34 +3053,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B55" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D55" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F55" s="5">
+        <v>44076</v>
       </c>
       <c r="G55" s="4">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H55" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J55" s="5">
-        <v>44024</v>
+        <v>44041</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>103</v>
@@ -3079,11 +3088,13 @@
       <c r="L55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B56" s="4" t="b">
         <v>1</v>
@@ -3092,7 +3103,7 @@
         <v>235</v>
       </c>
       <c r="D56" s="4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>11</v>
@@ -3101,16 +3112,16 @@
         <v>44076</v>
       </c>
       <c r="G56" s="4">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="H56" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J56" s="5">
-        <v>44021</v>
+        <v>44041</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>103</v>
@@ -3119,12 +3130,12 @@
         <v>105</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4" t="b">
         <v>1</v>
@@ -3165,7 +3176,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4" t="b">
         <v>1</v>
@@ -3174,7 +3185,7 @@
         <v>235</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>11</v>
@@ -3186,7 +3197,7 @@
         <v>287</v>
       </c>
       <c r="H58" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>11</v>
@@ -3206,7 +3217,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="b">
         <v>1</v>
@@ -3215,7 +3226,7 @@
         <v>235</v>
       </c>
       <c r="D59" s="4">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>11</v>
@@ -3227,7 +3238,7 @@
         <v>287</v>
       </c>
       <c r="H59" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>11</v>
@@ -3242,12 +3253,12 @@
         <v>105</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="b">
         <v>1</v>
@@ -3256,7 +3267,7 @@
         <v>235</v>
       </c>
       <c r="D60" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>11</v>
@@ -3288,7 +3299,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4" t="b">
         <v>1</v>
@@ -3297,7 +3308,7 @@
         <v>235</v>
       </c>
       <c r="D61" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>11</v>
@@ -3324,12 +3335,12 @@
         <v>105</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="b">
         <v>1</v>
@@ -3350,7 +3361,7 @@
         <v>287</v>
       </c>
       <c r="H62" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>11</v>
@@ -3369,222 +3380,231 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>235</v>
+      </c>
+      <c r="D63" s="4">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="5">
+        <v>44076</v>
+      </c>
+      <c r="G63" s="4">
+        <v>287</v>
+      </c>
+      <c r="H63" s="4">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="5">
+        <v>44021</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
         <v>235</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>19</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="3">
         <v>44076</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>265</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="2">
         <v>13</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="3">
+      <c r="I64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="3">
         <v>44024</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64">
-        <v>249</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="1">
-        <v>44041</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" t="s">
-        <v>22</v>
+      <c r="C65">
+        <v>205</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
-      <c r="G65">
-        <v>265</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="1">
-        <v>44024</v>
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
+      <c r="C66">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
       </c>
-      <c r="G66">
-        <v>265</v>
-      </c>
-      <c r="H66">
-        <v>4</v>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="1">
-        <v>44024</v>
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
-      <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
+      <c r="C67">
+        <v>205</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
       </c>
-      <c r="G67">
-        <v>265</v>
-      </c>
-      <c r="H67">
-        <v>5</v>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="1">
-        <v>44024</v>
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
-      <c r="C68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
+      <c r="C68">
+        <v>205</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
-      <c r="G68">
-        <v>287</v>
-      </c>
-      <c r="H68">
-        <v>16</v>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="1">
-        <v>44021</v>
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="1">
-        <v>44075</v>
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -3601,22 +3621,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1">
-        <v>44075</v>
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
       </c>
       <c r="G70" t="s">
         <v>22</v>
@@ -3633,22 +3653,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="1">
-        <v>44075</v>
+        <v>44069</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
@@ -3665,22 +3685,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="1">
-        <v>44076</v>
+        <v>44069</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
@@ -3697,7 +3717,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -3706,13 +3726,13 @@
         <v>205</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44069</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -3729,7 +3749,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -3738,13 +3758,13 @@
         <v>205</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44069</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -3761,7 +3781,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -3770,13 +3790,13 @@
         <v>205</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44069</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -3793,7 +3813,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -3802,13 +3822,13 @@
         <v>205</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44069</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -3825,7 +3845,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -3837,10 +3857,10 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44069</v>
       </c>
       <c r="G77" t="s">
         <v>22</v>
@@ -3857,22 +3877,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44075</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -3889,22 +3909,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="1">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -3921,22 +3941,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="1">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G80" t="s">
         <v>22</v>
@@ -3953,22 +3973,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="1">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -3985,22 +4005,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="1">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="G82" t="s">
         <v>22</v>
@@ -4017,7 +4037,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -4026,7 +4046,7 @@
         <v>234</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -4049,7 +4069,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -4058,7 +4078,7 @@
         <v>234</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -4081,168 +4101,169 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
-      <c r="C85">
-        <v>234</v>
-      </c>
-      <c r="D85">
-        <v>14</v>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="1">
-        <v>44075</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85">
+        <v>249</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
-      </c>
-      <c r="J85" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J85" s="1">
+        <v>44041</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
-      <c r="C86">
-        <v>205</v>
-      </c>
-      <c r="D86">
-        <v>19</v>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="1">
-        <v>44069</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86">
+        <v>265</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J86" s="1">
+        <v>44024</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
-      <c r="C87">
-        <v>234</v>
-      </c>
-      <c r="D87">
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
         <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="1">
-        <v>44075</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87">
+        <v>265</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J87" s="1">
+        <v>44024</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
-      <c r="C88">
-        <v>205</v>
-      </c>
-      <c r="D88">
-        <v>15</v>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="1">
-        <v>44069</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88">
+        <v>265</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J88" s="1">
+        <v>44024</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89">
-        <v>205</v>
-      </c>
-      <c r="D89">
-        <v>7</v>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="1">
-        <v>44069</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>287</v>
+      </c>
+      <c r="H89">
+        <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J89" s="1">
+        <v>44021</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M96">
-    <sortCondition ref="K2:K96"/>
-    <sortCondition ref="G2:G96"/>
+  <autoFilter ref="A1:M89" xr:uid="{91DFEF88-21FD-4228-9996-62035948DDFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M90">
+    <sortCondition ref="K2:K90"/>
+    <sortCondition ref="C2:C90"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
